--- a/Assets/Resources/MasterData/MagicData.xlsx
+++ b/Assets/Resources/MasterData/MagicData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Programming\ProjectN\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7926D88-7C4D-40AF-A59D-FFD32406816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14B62F-5D8F-4783-BF63-6CCEA0489142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9405" yWindow="2775" windowWidth="14715" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -120,11 +120,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PlayerDamage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyDamage</t>
+    <t>Damage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -148,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,11 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -506,9 +510,7 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
@@ -523,9 +525,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
@@ -540,9 +540,7 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -557,9 +555,7 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
@@ -574,9 +570,7 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -591,9 +585,7 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -608,9 +600,7 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -625,9 +615,7 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
@@ -642,9 +630,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -659,9 +645,19 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/MagicData.xlsx
+++ b/Assets/Resources/MasterData/MagicData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Programming\ProjectN\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14B62F-5D8F-4783-BF63-6CCEA0489142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAA337-74A3-4D40-8A98-20ABE71CE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9405" yWindow="2775" windowWidth="14715" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,13 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -484,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -510,11 +509,11 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -525,26 +524,24 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -555,11 +552,10 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -570,11 +566,10 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -585,11 +580,10 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -600,11 +594,10 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -615,11 +608,10 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -630,11 +622,10 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -645,19 +636,6 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/MagicData.xlsx
+++ b/Assets/Resources/MasterData/MagicData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Programming\ProjectN\Ceil_Project_N\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAA337-74A3-4D40-8A98-20ABE71CE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06CA43-8CE6-40A8-AFA1-90E72239C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="2775" windowWidth="14715" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicData" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -486,7 +489,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
